--- a/input/Teachers.xlsx
+++ b/input/Teachers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mission\5.Programming\pythonProject\University-Schedule-Planner\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EAB6EE-72A6-4598-8C6A-6528FA3F1568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47B6980-5ADB-4A5E-9916-7D6CFE4B4F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="11748" windowWidth="3960" windowHeight="4308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13884" yWindow="5604" windowWidth="11460" windowHeight="4812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -40,6 +40,21 @@
   </si>
   <si>
     <t>Препод_4</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>lector, assistant</t>
+  </si>
+  <si>
+    <t>assistant</t>
+  </si>
+  <si>
+    <t>lector</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -363,45 +378,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>